--- a/listofwords.xlsx
+++ b/listofwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rahim\Uni\Sem 4\TOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cools\Desktop\GitHub\CFGParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449240C0-6297-41B3-B189-D0A337D4DD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44257992-FBDA-4578-8A3B-E609F4427D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B403B56F-DDE8-4C0D-AFD3-B0D65C37B0F9}"/>
+    <workbookView xWindow="13425" yWindow="4170" windowWidth="14670" windowHeight="11385" xr2:uid="{B403B56F-DDE8-4C0D-AFD3-B0D65C37B0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23073,11 +23073,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1395B2EE-B45A-4802-8FBC-5D4F62CDD730}">
   <dimension ref="A1:F6802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6785" sqref="J6785"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
